--- a/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005793</t>
+          <t>952035</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华富可转债债券</t>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>12.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002598</t>
+          <t>008840</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安消费精选混合A</t>
+          <t>德邦大消费混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002599</t>
+          <t>001179</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>平安消费精选混合C</t>
+          <t>德邦大健康灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008840</t>
+          <t>700001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>德邦大消费混合A</t>
+          <t>平安行业先锋混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008841</t>
+          <t>005910</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德邦大消费混合C</t>
+          <t>广发龙头优选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>952035</t>
+          <t>003626</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
+          <t>平安鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82.90</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>700001</t>
+          <t>008841</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安行业先锋混合</t>
+          <t>德邦大消费混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001179</t>
+          <t>005444</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>德邦大健康灵活配置混合</t>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>006433</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>平安鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>21.51</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>0.66</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -754,15 +854,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>77.44</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005910</t>
+          <t>002598</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发龙头优选灵活配置混合</t>
+          <t>平安消费精选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006433</t>
+          <t>002599</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合C</t>
+          <t>平安消费精选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21.51</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005444</t>
+          <t>005793</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+          <t>华富可转债债券</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>51.25</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>952035</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006433</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合C</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005910</t>
+          <t>008840</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发龙头优选灵活配置混合</t>
+          <t>德邦大消费混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78.91</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006167</t>
+          <t>001179</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>德邦乐享生活混合A</t>
+          <t>德邦大健康灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006168</t>
+          <t>700001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德邦乐享生活混合C</t>
+          <t>平安行业先锋混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001179</t>
+          <t>006167</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>德邦大健康灵活配置混合</t>
+          <t>德邦乐享生活混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.71</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>005910</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>广发龙头优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>79.04</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>4.51</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>4</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>700001</t>
+          <t>008841</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>平安行业先锋混合</t>
+          <t>德邦大消费混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>700004</t>
+          <t>003626</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>平安灵活配置混合</t>
+          <t>平安鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>76.13</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008840</t>
+          <t>006433</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>德邦大消费混合A</t>
+          <t>平安鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008841</t>
+          <t>700004</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>德邦大消费混合C</t>
+          <t>平安灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>952035</t>
+          <t>006168</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
+          <t>德邦乐享生活混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1714,4 +1715,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1961,4 +1962,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6335</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.46</v>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5811</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.1</v>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2049,13 +2136,873 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安益增强混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2901,7 +2902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2912,17 +2913,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2932,14 +2953,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.26</v>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2948,14 +2991,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2964,14 +3029,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.46</v>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4994</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2980,14 +3067,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.1</v>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2996,13 +3105,1763 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5534</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4539</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2489</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4744,7 +4745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4755,17 +4756,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4775,14 +4796,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.949999999999999</v>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4791,14 +4834,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.26</v>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1168</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4807,14 +4872,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.28</v>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4823,14 +4910,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4796</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.46</v>
       </c>
     </row>
     <row r="6">
@@ -4839,14 +4948,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.1</v>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -4855,13 +4986,2501 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6295</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4694</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4387</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008058</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>40.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008059</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
-        <v>13.21</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>9.949999999999999</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>2.26</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.14</v>
       </c>
     </row>
@@ -600,6 +617,4276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红沪港深混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3050</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9841</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8979</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8953</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安生态优先混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6641</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013294</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6253</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5640</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4495</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4395</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4289</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3145</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011975</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014977</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安生态优先混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华创新动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014706</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014707</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002358</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011616</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013295</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011558</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘宁弘六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>61.41</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>57.54</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011559</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘宁弘六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>016290</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>57.54</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011976</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>015946</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3201,7 +7488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5043,7 +9330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5973,7 +10260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6219,7 +10506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6427,7 +10714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6939,7 +11226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600004-白云机场.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>19.12</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="D3" t="n">
-        <v>13.21</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>9.949999999999999</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>2.26</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>0.28</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.14</v>
       </c>
     </row>
@@ -616,7 +633,2777 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富可转债债券</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4921</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9457</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9318</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4499</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2573</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015561</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城双动力混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城双动力混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013387</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城价值领航混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010081</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康浩泽混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013674</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014333</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013388</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城价值领航混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016290</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014334</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013675</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010082</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰康浩泽混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4886,7 +7673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7488,7 +10275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9330,7 +12117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10260,7 +13047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10506,7 +13293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10714,7 +13501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11224,554 +14011,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>952035</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5242</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008840</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>德邦大消费混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1752</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001179</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>德邦大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1574</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>700001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>平安行业先锋混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0809</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005910</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发龙头优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0635</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003626</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008841</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>德邦大消费混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>51.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006433</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>700004</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>平安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>77.44</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002598</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>平安消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002599</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>平安消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005793</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华富可转债债券</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.12</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>